--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174945.0504052117</v>
+        <v>172363.0010114922</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>63.40545427966971</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -710,10 +710,10 @@
         <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>41.30849965214723</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>62.46099277327778</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.663066562279274</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>66.94856248178849</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>232.487218319358</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>397.9628178532236</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>64.07309159909043</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.829285028799156</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>241.7297079080357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>77.98424042599187</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>49.49170683602434</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>86.22727914477042</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>170.722427606551</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.5133592021556</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>166.6594061764988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>103.8784673763403</v>
+        <v>83.0656089242828</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>86.90598908794038</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503923</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>24.83266606353065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
-        <v>105.1820732698676</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>93.4044447618827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.144681024959</v>
+        <v>471.118372194948</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.144681024959</v>
+        <v>471.118372194948</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.144681024959</v>
+        <v>471.118372194948</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.144681024959</v>
+        <v>471.118372194948</v>
       </c>
       <c r="F2" t="n">
-        <v>875.158776235352</v>
+        <v>471.118372194948</v>
       </c>
       <c r="G2" t="n">
         <v>458.7065149272266</v>
@@ -4331,25 +4331,25 @@
         <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>627.4163600671984</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>865.0391412853904</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1161.109707842993</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1802.132917462887</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2406.533893791924</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2343.441981899724</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2012.379094556153</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1659.610439286039</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1286.144681024959</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.144681024959</v>
+        <v>535.1642856087558</v>
       </c>
     </row>
     <row r="3">
@@ -4410,10 +4410,10 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>464.3298303300111</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>1041.052645433267</v>
       </c>
       <c r="M3" t="n">
         <v>1304.992176928754</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.4563075055542</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>57.52012457764727</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>57.52012457764727</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>57.52012457764727</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>57.52012457764727</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628692</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>991.0700018628692</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>701.9333748549711</v>
+        <v>816.6940927091972</v>
       </c>
       <c r="V4" t="n">
-        <v>447.2488866490843</v>
+        <v>562.0096045033104</v>
       </c>
       <c r="W4" t="n">
-        <v>447.2488866490843</v>
+        <v>272.5924344663498</v>
       </c>
       <c r="X4" t="n">
-        <v>447.2488866490843</v>
+        <v>272.5924344663498</v>
       </c>
       <c r="Y4" t="n">
-        <v>226.4563075055542</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1597.045042748997</v>
+        <v>709.2627719318489</v>
       </c>
       <c r="C5" t="n">
-        <v>1597.045042748997</v>
+        <v>709.2627719318489</v>
       </c>
       <c r="D5" t="n">
-        <v>1238.779344142246</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="E5" t="n">
-        <v>1238.779344142246</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>63.44129308228369</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4580,37 +4580,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083233</v>
+        <v>2212.236357502976</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.413538083233</v>
+        <v>2212.236357502976</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.644882813119</v>
+        <v>1859.467702232862</v>
       </c>
       <c r="X5" t="n">
-        <v>1983.644882813119</v>
+        <v>1486.001943971782</v>
       </c>
       <c r="Y5" t="n">
-        <v>1983.644882813119</v>
+        <v>1095.862611995971</v>
       </c>
     </row>
     <row r="6">
@@ -4629,43 +4629,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>115.285257822616</v>
       </c>
       <c r="K6" t="n">
-        <v>463.068411698045</v>
+        <v>301.9467472258286</v>
       </c>
       <c r="L6" t="n">
-        <v>1104.091621317939</v>
+        <v>599.2586963421431</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>965.5645858344685</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>411.323190947659</v>
+        <v>495.2504319702414</v>
       </c>
       <c r="C7" t="n">
-        <v>411.323190947659</v>
+        <v>495.2504319702414</v>
       </c>
       <c r="D7" t="n">
-        <v>411.323190947659</v>
+        <v>495.2504319702414</v>
       </c>
       <c r="E7" t="n">
-        <v>263.4100973652659</v>
+        <v>347.3373383878483</v>
       </c>
       <c r="F7" t="n">
-        <v>116.5201498673555</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4744,31 +4744,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1640.08540244802</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1443.635736453988</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1220.70116199597</v>
       </c>
       <c r="U7" t="n">
-        <v>1357.865893164276</v>
+        <v>931.583385006368</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.18140495839</v>
+        <v>676.8988968004811</v>
       </c>
       <c r="W7" t="n">
-        <v>813.7642349214289</v>
+        <v>676.8988968004811</v>
       </c>
       <c r="X7" t="n">
-        <v>813.7642349214289</v>
+        <v>676.8988968004811</v>
       </c>
       <c r="Y7" t="n">
-        <v>592.9716557778987</v>
+        <v>676.8988968004811</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1329.746324659711</v>
+        <v>1885.464120536334</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.746324659711</v>
+        <v>1516.501603595922</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.746324659711</v>
+        <v>1158.235904989172</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>772.4476523909277</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>361.4617476013202</v>
       </c>
       <c r="G8" t="n">
         <v>117.2903254719912</v>
@@ -4799,55 +4799,55 @@
         <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104777</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135506</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2387.043625534476</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2387.043625534476</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V8" t="n">
-        <v>2055.980738190905</v>
+        <v>2258.929878797414</v>
       </c>
       <c r="W8" t="n">
-        <v>1703.212082920791</v>
+        <v>2258.929878797414</v>
       </c>
       <c r="X8" t="n">
-        <v>1329.746324659711</v>
+        <v>1885.464120536334</v>
       </c>
       <c r="Y8" t="n">
-        <v>1329.746324659711</v>
+        <v>1885.464120536334</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>115.285257822616</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>301.9467472258286</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457227</v>
+        <v>853.4779730237876</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>1219.783862516113</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.68540766379</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>2034.614088379321</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>652.2572796023534</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="C10" t="n">
-        <v>652.2572796023534</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>502.1406401900176</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>354.2275466076245</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>207.3375991097141</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.931318706258</v>
+        <v>1059.29486492727</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2468305003707</v>
+        <v>804.6103767213834</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2468305003707</v>
+        <v>717.5121149589891</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2572796023534</v>
+        <v>717.5121149589891</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.2572796023534</v>
+        <v>496.7195358154589</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5042,19 +5042,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1872.059887685832</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.359422267661</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.927936255316</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.358531127103</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.368980229086</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.5764010855557</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
@@ -5759,16 +5759,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>785.3114619327533</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453378</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078141</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.672861378251</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1984.597634722449</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.913146516562</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1440.495976479601</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1212.506425581584</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>991.7138464380538</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7409,7 +7409,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,13 +7488,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>174.0565410048754</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>142.3850817401784</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.3850817401784</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>162.7491560325416</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177567</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>274.5176649421951</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177568</v>
+        <v>256.7871481632772</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.7491560325417</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>51.04601279049977</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>188.6434602289515</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856647</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>115.4620467826931</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.07129414993923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229328</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>41.54258064659095</v>
+        <v>62.35543909864845</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788525</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>61.70948393027197</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187658</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.4141550350972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
-        <v>112.2233770574207</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>55.21102825632966</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923208</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923207</v>
+        <v>348942.7521923208</v>
       </c>
       <c r="E2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="H2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="G2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="I2" t="n">
-        <v>343037.3048682531</v>
-      </c>
       <c r="J2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="L2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="M2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="K2" t="n">
-        <v>343037.3048682526</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682528</v>
-      </c>
       <c r="N2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.304868253</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898921</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>169414.0168260479</v>
@@ -26427,13 +26427,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695061</v>
-      </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26442,13 +26442,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695117</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695036</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
@@ -26470,10 +26470,10 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829003.0897341979</v>
+        <v>-829189.4831227369</v>
       </c>
       <c r="C6" t="n">
-        <v>-46369.45168432931</v>
+        <v>-46369.4516843289</v>
       </c>
       <c r="D6" t="n">
-        <v>126394.9081055631</v>
+        <v>126394.9081055632</v>
       </c>
       <c r="E6" t="n">
-        <v>-265261.5732331002</v>
+        <v>-265296.3111585361</v>
       </c>
       <c r="F6" t="n">
-        <v>235627.2945126505</v>
+        <v>235592.5565872149</v>
       </c>
       <c r="G6" t="n">
-        <v>235627.2945126504</v>
+        <v>235592.556587215</v>
       </c>
       <c r="H6" t="n">
-        <v>235627.2945126508</v>
+        <v>235592.5565872148</v>
       </c>
       <c r="I6" t="n">
-        <v>235627.2945126507</v>
+        <v>235592.556587215</v>
       </c>
       <c r="J6" t="n">
-        <v>66213.27768660286</v>
+        <v>66178.53976116695</v>
       </c>
       <c r="K6" t="n">
-        <v>235627.2945126504</v>
+        <v>235592.5565872151</v>
       </c>
       <c r="L6" t="n">
-        <v>235627.2945126505</v>
+        <v>235592.5565872151</v>
       </c>
       <c r="M6" t="n">
-        <v>104742.8376084154</v>
+        <v>104708.0996829797</v>
       </c>
       <c r="N6" t="n">
-        <v>235627.2945126505</v>
+        <v>235592.556587215</v>
       </c>
       <c r="O6" t="n">
-        <v>235627.2945126508</v>
+        <v>235592.556587215</v>
       </c>
       <c r="P6" t="n">
-        <v>235627.2945126508</v>
+        <v>235592.5565872151</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522334</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>268.2823745933111</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>168.5891925770362</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>160.975488120528</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>219.2966982560305</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>122.1958233013249</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>8.913227888487882</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>102.2233352516391</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>94.27086359174527</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>169.7953154738337</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
-        <v>128.5746655197689</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>116.8047200147052</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>200.2957191918206</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31434,31 +31434,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,28 +31671,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,16 +32558,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34699,7 +34699,7 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>337.4858461210325</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34708,19 +34708,19 @@
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
         <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>265.0346698919754</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>408.9906691093579</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K6" t="n">
-        <v>351.2961150256857</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352464</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>612.8294636447516</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352464</v>
+        <v>557.1022482807666</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>414.745850845692</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
